--- a/DestroyViruses/Assets/Config/ConfigGameVirusWave.xlsx
+++ b/DestroyViruses/Assets/Config/ConfigGameVirusWave.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\DestroyViruses\DestroyViruses\Assets\Config\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="14865"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14865"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="35">
   <si>
     <t>id</t>
   </si>
@@ -132,14 +137,13 @@
     </r>
   </si>
   <si>
+    <t>中等难度</t>
+  </si>
+  <si>
+    <t>复杂难度</t>
+  </si>
+  <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>(</t>
     </r>
     <r>
@@ -150,27 +154,73 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>100,150)</t>
+      <t>100,</t>
     </r>
-  </si>
-  <si>
-    <t>中等难度</t>
-  </si>
-  <si>
-    <t>复杂难度</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>50)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>100,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>250)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="20">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -179,345 +229,36 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -525,253 +266,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -784,62 +283,19 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1126,19 +582,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="J4" sqref="J4:J48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="11.125" customWidth="1"/>
     <col min="3" max="3" width="27.125" customWidth="1"/>
@@ -1151,7 +607,7 @@
     <col min="10" max="10" width="17.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1180,7 +636,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -1209,7 +665,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="45" customHeight="1" spans="1:10">
+    <row r="3" spans="1:10" s="1" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
@@ -1241,7 +697,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1264,16 +720,16 @@
         <v>1</v>
       </c>
       <c r="H4">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="I4" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="J4" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
+      <c r="J4" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>2</v>
       </c>
@@ -1296,16 +752,16 @@
         <v>0.8</v>
       </c>
       <c r="H5">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="I5" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="J5" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
+      <c r="J5" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>3</v>
       </c>
@@ -1328,16 +784,16 @@
         <v>0.6</v>
       </c>
       <c r="H6">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="I6" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="J6" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
+      <c r="J6" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>4</v>
       </c>
@@ -1360,16 +816,16 @@
         <v>1</v>
       </c>
       <c r="H7">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="I7" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="J7" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
+      <c r="J7" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>5</v>
       </c>
@@ -1392,16 +848,16 @@
         <v>0.8</v>
       </c>
       <c r="H8">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="I8" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="J8" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
+      <c r="J8" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>6</v>
       </c>
@@ -1424,16 +880,16 @@
         <v>0.6</v>
       </c>
       <c r="H9">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="I9" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="J9" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
+      <c r="J9" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>7</v>
       </c>
@@ -1456,16 +912,16 @@
         <v>1</v>
       </c>
       <c r="H10">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="I10" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="J10" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
+      <c r="J10" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>8</v>
       </c>
@@ -1488,16 +944,16 @@
         <v>0.8</v>
       </c>
       <c r="H11">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="I11" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="J11" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
+      <c r="J11" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>9</v>
       </c>
@@ -1520,16 +976,16 @@
         <v>0.6</v>
       </c>
       <c r="H12">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="I12" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="J12" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
+      <c r="J12" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>10</v>
       </c>
@@ -1552,16 +1008,16 @@
         <v>1</v>
       </c>
       <c r="H13">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="I13" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="J13" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
+      <c r="J13" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>11</v>
       </c>
@@ -1584,16 +1040,16 @@
         <v>0.8</v>
       </c>
       <c r="H14">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="I14" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="J14" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
+      <c r="J14" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>12</v>
       </c>
@@ -1616,16 +1072,16 @@
         <v>0.6</v>
       </c>
       <c r="H15">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="I15" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="J15" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
+      <c r="J15" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>13</v>
       </c>
@@ -1648,16 +1104,16 @@
         <v>1</v>
       </c>
       <c r="H16">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="I16" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="J16" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10">
+      <c r="J16" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>14</v>
       </c>
@@ -1680,16 +1136,16 @@
         <v>0.8</v>
       </c>
       <c r="H17">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="I17" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="J17" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10">
+      <c r="J17" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>15</v>
       </c>
@@ -1712,21 +1168,21 @@
         <v>0.6</v>
       </c>
       <c r="H18">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="I18" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="J18" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10">
+      <c r="J18" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>16</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -1744,21 +1200,21 @@
         <v>1</v>
       </c>
       <c r="H19">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="I19" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="J19" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10">
+      <c r="J19" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>17</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C20">
         <v>2</v>
@@ -1776,21 +1232,21 @@
         <v>0.8</v>
       </c>
       <c r="H20">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="I20" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="J20" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10">
+      <c r="J20" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>18</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C21">
         <v>3</v>
@@ -1808,21 +1264,21 @@
         <v>0.6</v>
       </c>
       <c r="H21">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="I21" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="J21" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10">
+      <c r="J21" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>19</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -1840,21 +1296,21 @@
         <v>1</v>
       </c>
       <c r="H22">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="I22" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="J22" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10">
+      <c r="J22" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>20</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C23">
         <v>2</v>
@@ -1872,21 +1328,21 @@
         <v>0.8</v>
       </c>
       <c r="H23">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="I23" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="J23" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10">
+      <c r="J23" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>21</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C24">
         <v>3</v>
@@ -1904,21 +1360,21 @@
         <v>0.6</v>
       </c>
       <c r="H24">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="I24" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="J24" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10">
+      <c r="J24" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>22</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C25">
         <v>1</v>
@@ -1936,21 +1392,21 @@
         <v>1</v>
       </c>
       <c r="H25">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="I25" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="J25" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10">
+      <c r="J25" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>23</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C26">
         <v>2</v>
@@ -1968,21 +1424,21 @@
         <v>0.8</v>
       </c>
       <c r="H26">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="I26" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="J26" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10">
+      <c r="J26" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>24</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C27">
         <v>3</v>
@@ -2000,21 +1456,21 @@
         <v>0.6</v>
       </c>
       <c r="H27">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="I27" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="J27" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10">
+      <c r="J27" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>25</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C28">
         <v>1</v>
@@ -2032,21 +1488,21 @@
         <v>1</v>
       </c>
       <c r="H28">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="I28" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="J28" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10">
+      <c r="J28" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>26</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C29">
         <v>2</v>
@@ -2064,21 +1520,21 @@
         <v>0.8</v>
       </c>
       <c r="H29">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="I29" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="J29" s="5" t="s">
+      <c r="J29" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A30">
+        <v>27</v>
+      </c>
+      <c r="B30" s="4" t="s">
         <v>31</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10">
-      <c r="A30">
-        <v>27</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>32</v>
       </c>
       <c r="C30">
         <v>3</v>
@@ -2096,22 +1552,22 @@
         <v>0.6</v>
       </c>
       <c r="H30">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="I30" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="J30" s="5" t="s">
+      <c r="J30" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A31">
+        <v>28</v>
+      </c>
+      <c r="B31" s="4" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="31" spans="1:10">
-      <c r="A31">
-        <v>28</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>32</v>
-      </c>
       <c r="C31">
         <v>1</v>
       </c>
@@ -2128,21 +1584,21 @@
         <v>1</v>
       </c>
       <c r="H31">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="I31" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="J31" s="5" t="s">
+      <c r="J31" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A32">
+        <v>29</v>
+      </c>
+      <c r="B32" s="4" t="s">
         <v>31</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10">
-      <c r="A32">
-        <v>29</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>32</v>
       </c>
       <c r="C32">
         <v>2</v>
@@ -2160,21 +1616,21 @@
         <v>0.8</v>
       </c>
       <c r="H32">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="I32" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="J32" s="5" t="s">
+      <c r="J32" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A33">
+        <v>30</v>
+      </c>
+      <c r="B33" s="4" t="s">
         <v>31</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10">
-      <c r="A33">
-        <v>30</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>32</v>
       </c>
       <c r="C33">
         <v>3</v>
@@ -2192,21 +1648,21 @@
         <v>0.6</v>
       </c>
       <c r="H33">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="I33" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="J33" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10">
+      <c r="J33" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A34">
         <v>31</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C34">
         <v>1</v>
@@ -2224,21 +1680,21 @@
         <v>1</v>
       </c>
       <c r="H34">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="I34" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="J34" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10">
+      <c r="J34" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A35">
         <v>32</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C35">
         <v>2</v>
@@ -2256,21 +1712,21 @@
         <v>0.8</v>
       </c>
       <c r="H35">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="I35" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="J35" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10">
+      <c r="J35" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A36">
         <v>33</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C36">
         <v>3</v>
@@ -2288,21 +1744,21 @@
         <v>0.6</v>
       </c>
       <c r="H36">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="I36" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="J36" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10">
+      <c r="J36" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A37">
         <v>34</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C37">
         <v>1</v>
@@ -2320,21 +1776,21 @@
         <v>1</v>
       </c>
       <c r="H37">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="I37" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="J37" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10">
+      <c r="J37" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A38">
         <v>35</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C38">
         <v>2</v>
@@ -2352,21 +1808,21 @@
         <v>0.8</v>
       </c>
       <c r="H38">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="I38" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="J38" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10">
+      <c r="J38" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A39">
         <v>36</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C39">
         <v>3</v>
@@ -2384,21 +1840,21 @@
         <v>0.6</v>
       </c>
       <c r="H39">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="I39" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="J39" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10">
+      <c r="J39" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A40">
         <v>37</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C40">
         <v>1</v>
@@ -2416,21 +1872,21 @@
         <v>1</v>
       </c>
       <c r="H40">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="I40" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="J40" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10">
+      <c r="J40" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A41">
         <v>38</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C41">
         <v>2</v>
@@ -2448,21 +1904,21 @@
         <v>0.8</v>
       </c>
       <c r="H41">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="I41" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="J41" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10">
+      <c r="J41" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A42">
         <v>39</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C42">
         <v>3</v>
@@ -2480,21 +1936,21 @@
         <v>0.6</v>
       </c>
       <c r="H42">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="I42" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="J42" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10">
+      <c r="J42" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A43">
         <v>40</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C43">
         <v>1</v>
@@ -2512,21 +1968,21 @@
         <v>1</v>
       </c>
       <c r="H43">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="I43" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="J43" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10">
+      <c r="J43" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A44">
         <v>41</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C44">
         <v>2</v>
@@ -2544,21 +2000,21 @@
         <v>0.8</v>
       </c>
       <c r="H44">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="I44" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="J44" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10">
+      <c r="J44" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A45">
         <v>42</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C45">
         <v>3</v>
@@ -2576,21 +2032,21 @@
         <v>0.6</v>
       </c>
       <c r="H45">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="I45" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="J45" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="46" customFormat="1" spans="1:10">
+      <c r="J45" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A46">
         <v>43</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C46">
         <v>1</v>
@@ -2608,21 +2064,21 @@
         <v>1</v>
       </c>
       <c r="H46">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="I46" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="J46" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="47" customFormat="1" spans="1:10">
+      <c r="J46" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A47">
         <v>44</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C47">
         <v>2</v>
@@ -2640,21 +2096,21 @@
         <v>0.8</v>
       </c>
       <c r="H47">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="I47" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="J47" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="48" customFormat="1" spans="1:10">
+      <c r="J47" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A48">
         <v>45</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C48">
         <v>3</v>
@@ -2672,50 +2128,44 @@
         <v>0.6</v>
       </c>
       <c r="H48">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="I48" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="J48" s="5" t="s">
-        <v>31</v>
+      <c r="J48" s="6" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>